--- a/biology/Médecine/Corde_oblique_de_la_membrane_interosseuse_de_l'avant-bras/Corde_oblique_de_la_membrane_interosseuse_de_l'avant-bras.xlsx
+++ b/biology/Médecine/Corde_oblique_de_la_membrane_interosseuse_de_l'avant-bras/Corde_oblique_de_la_membrane_interosseuse_de_l'avant-bras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Corde_oblique_de_la_membrane_interosseuse_de_l%27avant-bras</t>
+          <t>Corde_oblique_de_la_membrane_interosseuse_de_l'avant-bras</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La corde oblique de la membrane interosseuse de l’avant-bras (ou corde oblique de Weitbrecht ou ligament oblique radio-cubital)[1] est un ligament entre les os ulna et radial de l'avant-bras près du coude.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La corde oblique de la membrane interosseuse de l’avant-bras (ou corde oblique de Weitbrecht ou ligament oblique radio-cubital) est un ligament entre les os ulna et radial de l'avant-bras près du coude.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Corde_oblique_de_la_membrane_interosseuse_de_l%27avant-bras</t>
+          <t>Corde_oblique_de_la_membrane_interosseuse_de_l'avant-bras</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La corde oblique est un élément constitutif de la membrane interosseuse de l’avant-bras et contribue à la syndesmose radio-ulnaire.
-Elle prend la forme d'une petite bande aplatie épaississant la membrane interosseuse. Elle s'étend vers le bas et latéralement de la tubérosité de l'ulna située à la base du processus coronoïde jusqu'en dessous de la tubérosité du radius[2].
-Une étude sur 38 personnes a révélé que sa longueur moyenne est de 3,4 cm (plage de 2,4 à 4,2 cm) et chez la plupart des gens, il se rétrécit de l'ulna au radius de 9 mm à 4 mm[1].
-Variation
-La forme du ligament peut varier d'un cordon arrondi à une membrane plate[3]. Il peut également être absent.
+Elle prend la forme d'une petite bande aplatie épaississant la membrane interosseuse. Elle s'étend vers le bas et latéralement de la tubérosité de l'ulna située à la base du processus coronoïde jusqu'en dessous de la tubérosité du radius.
+Une étude sur 38 personnes a révélé que sa longueur moyenne est de 3,4 cm (plage de 2,4 à 4,2 cm) et chez la plupart des gens, il se rétrécit de l'ulna au radius de 9 mm à 4 mm.
 </t>
         </is>
       </c>
@@ -528,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Corde_oblique_de_la_membrane_interosseuse_de_l%27avant-bras</t>
+          <t>Corde_oblique_de_la_membrane_interosseuse_de_l'avant-bras</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Anatomie fonctionnelle</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il n'a pas de fonction connue et peut être coupé sans conséquence apparente[1].
-Il a été suggéré que sa présence chez l'homme moderne pourrait être une partie vestigiale de ses ascendances quadrupèdes[4].
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forme du ligament peut varier d'un cordon arrondi à une membrane plate. Il peut également être absent.
 </t>
         </is>
       </c>
@@ -560,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Corde_oblique_de_la_membrane_interosseuse_de_l%27avant-bras</t>
+          <t>Corde_oblique_de_la_membrane_interosseuse_de_l'avant-bras</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +592,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Anatomie fonctionnelle</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'a pas de fonction connue et peut être coupé sans conséquence apparente.
+Il a été suggéré que sa présence chez l'homme moderne pourrait être une partie vestigiale de ses ascendances quadrupèdes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Corde_oblique_de_la_membrane_interosseuse_de_l'avant-bras</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corde_oblique_de_la_membrane_interosseuse_de_l%27avant-bras</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve chez la plupart des primates sauf dans la famille des singes des Amériques qui comprend les atèles et singes laineux appelés atelines[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve chez la plupart des primates sauf dans la famille des singes des Amériques qui comprend les atèles et singes laineux appelés atelines.
 </t>
         </is>
       </c>
